--- a/映虚分会场爆品.xlsx
+++ b/映虚分会场爆品.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="爆品" sheetId="1" r:id="rId1"/>
+    <sheet name="店铺" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -418,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -506,26 +507,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>111</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
@@ -568,7 +549,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>111</v>
@@ -583,26 +564,6 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>111</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -623,6 +584,46 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -630,4 +631,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>